--- a/www/data/SexRatio_Compact.xlsx
+++ b/www/data/SexRatio_Compact.xlsx
@@ -6,14 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" r:id="rId3" sheetId="1"/>
-    <sheet name="Metadata" r:id="rId4" sheetId="2"/>
+    <sheet name="Data Clio Infra Format" r:id="rId3" sheetId="1"/>
+    <sheet name="Data Long Format" r:id="rId4" sheetId="2"/>
+    <sheet name="Metadata" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="557">
   <si>
     <t>ccode</t>
   </si>
@@ -1641,6 +1642,15 @@
     <t>United States</t>
   </si>
   <si>
+    <t>country.name</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1671,10 +1681,10 @@
     <t>https://www.clio-infra.eu/citations/DOI-10622_RVRFKS.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_RVRFKS.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_RVRFKS.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_RVRFKS.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_RVRFKS.bib</t>
   </si>
 </sst>
 </file>
@@ -16310,50 +16320,3143 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>542</v>
       </c>
+      <c r="C1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>532</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>537</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>519</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>523</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>526</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>528</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>529</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>531</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>537</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>540</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>519</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>520</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>523</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>524</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>525</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>528</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>529</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>531</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>532</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>536</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>538</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>540</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>541</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>519</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>521</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>523</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>524</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>525</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>526</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>528</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>529</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>531</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>532</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>533</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>536</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>537</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>538</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>539</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>540</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>541</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>518</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>519</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>520</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>521</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>523</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>524</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>525</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>529</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>531</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>532</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>535</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>536</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>537</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>538</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>539</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>518</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>519</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>520</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>521</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>522</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>523</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>524</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>525</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>526</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>527</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>528</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>529</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>530</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>531</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>532</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>533</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>535</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>536</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>537</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>538</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>539</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>540</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>541</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>518</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>519</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>520</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>521</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>522</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>523</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>524</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>525</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>526</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>527</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>528</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>529</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>530</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>531</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>532</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>533</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>535</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>536</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>537</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>538</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>539</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>540</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>541</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>518</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>519</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>520</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>521</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>522</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>523</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>524</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>525</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>526</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>527</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>528</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>529</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>530</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>531</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>532</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>533</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>535</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>536</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>537</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>538</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>539</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>540</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>541</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>518</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>519</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>520</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>521</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>522</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>523</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>524</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>525</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>526</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>527</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>528</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>529</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>530</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>531</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>532</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>533</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>535</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>536</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>537</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>538</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>539</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>540</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>541</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>518</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>519</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>520</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>521</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>522</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>523</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>524</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>525</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>526</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>527</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>528</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>529</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>530</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>531</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>533</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>534</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>535</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>536</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>537</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>538</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>539</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>540</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>541</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>518</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>519</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>520</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>521</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>522</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>523</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>524</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>525</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>526</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>527</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>528</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>529</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>530</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>531</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>532</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>533</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>534</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>535</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>536</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>537</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>538</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>539</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>540</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>541</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>545</v>
+      </c>
       <c r="B1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/www/data/SexRatio_Compact.xlsx
+++ b/www/data/SexRatio_Compact.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="592">
   <si>
     <t>ccode</t>
   </si>
@@ -1570,6 +1570,111 @@
     <t>2015</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -1675,7 +1780,7 @@
     <t>https://www.clio-infra.eu/data/SexRatio_Compact.xlsx</t>
   </si>
   <si>
-    <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Sex Ratio. http://hdl.handle.net/10622/RVRFKS, accessed via the Clio Infra website.</t>
+    <t>Carmichael, Sarah, Selin Dilli, and Auke Rijpma (2015). Sex Ratio. http://hdl.handle.net/10622/RVRFKS, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/citations/DOI-10622_RVRFKS.xml</t>
@@ -3290,13 +3395,118 @@
       <c r="SX1" t="s">
         <v>517</v>
       </c>
+      <c r="SY1" t="s">
+        <v>518</v>
+      </c>
+      <c r="SZ1" t="s">
+        <v>519</v>
+      </c>
+      <c r="TA1" t="s">
+        <v>520</v>
+      </c>
+      <c r="TB1" t="s">
+        <v>521</v>
+      </c>
+      <c r="TC1" t="s">
+        <v>522</v>
+      </c>
+      <c r="TD1" t="s">
+        <v>523</v>
+      </c>
+      <c r="TE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="TF1" t="s">
+        <v>525</v>
+      </c>
+      <c r="TG1" t="s">
+        <v>526</v>
+      </c>
+      <c r="TH1" t="s">
+        <v>527</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>528</v>
+      </c>
+      <c r="TJ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="TK1" t="s">
+        <v>530</v>
+      </c>
+      <c r="TL1" t="s">
+        <v>531</v>
+      </c>
+      <c r="TM1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TN1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TO1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TP1" t="s">
+        <v>535</v>
+      </c>
+      <c r="TQ1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TR1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TS1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TT1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TU1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TV1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TW1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TX1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>544</v>
+      </c>
+      <c r="TZ1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="UB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="UE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="UF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="UG1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>32.0</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -3830,13 +4040,48 @@
       <c r="SV2"/>
       <c r="SW2"/>
       <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36.0</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -4376,13 +4621,48 @@
       <c r="SV3"/>
       <c r="SW3"/>
       <c r="SX3"/>
+      <c r="SY3"/>
+      <c r="SZ3"/>
+      <c r="TA3"/>
+      <c r="TB3"/>
+      <c r="TC3"/>
+      <c r="TD3"/>
+      <c r="TE3"/>
+      <c r="TF3"/>
+      <c r="TG3"/>
+      <c r="TH3"/>
+      <c r="TI3"/>
+      <c r="TJ3"/>
+      <c r="TK3"/>
+      <c r="TL3"/>
+      <c r="TM3"/>
+      <c r="TN3"/>
+      <c r="TO3"/>
+      <c r="TP3"/>
+      <c r="TQ3"/>
+      <c r="TR3"/>
+      <c r="TS3"/>
+      <c r="TT3"/>
+      <c r="TU3"/>
+      <c r="TV3"/>
+      <c r="TW3"/>
+      <c r="TX3"/>
+      <c r="TY3"/>
+      <c r="TZ3"/>
+      <c r="UA3"/>
+      <c r="UB3"/>
+      <c r="UC3"/>
+      <c r="UD3"/>
+      <c r="UE3"/>
+      <c r="UF3"/>
+      <c r="UG3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>76.0</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -4918,13 +5198,48 @@
       <c r="SV4"/>
       <c r="SW4"/>
       <c r="SX4"/>
+      <c r="SY4"/>
+      <c r="SZ4"/>
+      <c r="TA4"/>
+      <c r="TB4"/>
+      <c r="TC4"/>
+      <c r="TD4"/>
+      <c r="TE4"/>
+      <c r="TF4"/>
+      <c r="TG4"/>
+      <c r="TH4"/>
+      <c r="TI4"/>
+      <c r="TJ4"/>
+      <c r="TK4"/>
+      <c r="TL4"/>
+      <c r="TM4"/>
+      <c r="TN4"/>
+      <c r="TO4"/>
+      <c r="TP4"/>
+      <c r="TQ4"/>
+      <c r="TR4"/>
+      <c r="TS4"/>
+      <c r="TT4"/>
+      <c r="TU4"/>
+      <c r="TV4"/>
+      <c r="TW4"/>
+      <c r="TX4"/>
+      <c r="TY4"/>
+      <c r="TZ4"/>
+      <c r="UA4"/>
+      <c r="UB4"/>
+      <c r="UC4"/>
+      <c r="UD4"/>
+      <c r="UE4"/>
+      <c r="UF4"/>
+      <c r="UG4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>124.0</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -5464,13 +5779,48 @@
       <c r="SV5"/>
       <c r="SW5"/>
       <c r="SX5"/>
+      <c r="SY5"/>
+      <c r="SZ5"/>
+      <c r="TA5"/>
+      <c r="TB5"/>
+      <c r="TC5"/>
+      <c r="TD5"/>
+      <c r="TE5"/>
+      <c r="TF5"/>
+      <c r="TG5"/>
+      <c r="TH5"/>
+      <c r="TI5"/>
+      <c r="TJ5"/>
+      <c r="TK5"/>
+      <c r="TL5"/>
+      <c r="TM5"/>
+      <c r="TN5"/>
+      <c r="TO5"/>
+      <c r="TP5"/>
+      <c r="TQ5"/>
+      <c r="TR5"/>
+      <c r="TS5"/>
+      <c r="TT5"/>
+      <c r="TU5"/>
+      <c r="TV5"/>
+      <c r="TW5"/>
+      <c r="TX5"/>
+      <c r="TY5"/>
+      <c r="TZ5"/>
+      <c r="UA5"/>
+      <c r="UB5"/>
+      <c r="UC5"/>
+      <c r="UD5"/>
+      <c r="UE5"/>
+      <c r="UF5"/>
+      <c r="UG5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>156.0</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -6000,13 +6350,48 @@
       <c r="SV6"/>
       <c r="SW6"/>
       <c r="SX6"/>
+      <c r="SY6"/>
+      <c r="SZ6"/>
+      <c r="TA6"/>
+      <c r="TB6"/>
+      <c r="TC6"/>
+      <c r="TD6"/>
+      <c r="TE6"/>
+      <c r="TF6"/>
+      <c r="TG6"/>
+      <c r="TH6"/>
+      <c r="TI6"/>
+      <c r="TJ6"/>
+      <c r="TK6"/>
+      <c r="TL6"/>
+      <c r="TM6"/>
+      <c r="TN6"/>
+      <c r="TO6"/>
+      <c r="TP6"/>
+      <c r="TQ6"/>
+      <c r="TR6"/>
+      <c r="TS6"/>
+      <c r="TT6"/>
+      <c r="TU6"/>
+      <c r="TV6"/>
+      <c r="TW6"/>
+      <c r="TX6"/>
+      <c r="TY6"/>
+      <c r="TZ6"/>
+      <c r="UA6"/>
+      <c r="UB6"/>
+      <c r="UC6"/>
+      <c r="UD6"/>
+      <c r="UE6"/>
+      <c r="UF6"/>
+      <c r="UG6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>818.0</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -6544,13 +6929,48 @@
       <c r="SV7"/>
       <c r="SW7"/>
       <c r="SX7"/>
+      <c r="SY7"/>
+      <c r="SZ7"/>
+      <c r="TA7"/>
+      <c r="TB7"/>
+      <c r="TC7"/>
+      <c r="TD7"/>
+      <c r="TE7"/>
+      <c r="TF7"/>
+      <c r="TG7"/>
+      <c r="TH7"/>
+      <c r="TI7"/>
+      <c r="TJ7"/>
+      <c r="TK7"/>
+      <c r="TL7"/>
+      <c r="TM7"/>
+      <c r="TN7"/>
+      <c r="TO7"/>
+      <c r="TP7"/>
+      <c r="TQ7"/>
+      <c r="TR7"/>
+      <c r="TS7"/>
+      <c r="TT7"/>
+      <c r="TU7"/>
+      <c r="TV7"/>
+      <c r="TW7"/>
+      <c r="TX7"/>
+      <c r="TY7"/>
+      <c r="TZ7"/>
+      <c r="UA7"/>
+      <c r="UB7"/>
+      <c r="UC7"/>
+      <c r="UD7"/>
+      <c r="UE7"/>
+      <c r="UF7"/>
+      <c r="UG7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>250.0</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -7090,13 +7510,48 @@
       <c r="SV8"/>
       <c r="SW8"/>
       <c r="SX8"/>
+      <c r="SY8"/>
+      <c r="SZ8"/>
+      <c r="TA8"/>
+      <c r="TB8"/>
+      <c r="TC8"/>
+      <c r="TD8"/>
+      <c r="TE8"/>
+      <c r="TF8"/>
+      <c r="TG8"/>
+      <c r="TH8"/>
+      <c r="TI8"/>
+      <c r="TJ8"/>
+      <c r="TK8"/>
+      <c r="TL8"/>
+      <c r="TM8"/>
+      <c r="TN8"/>
+      <c r="TO8"/>
+      <c r="TP8"/>
+      <c r="TQ8"/>
+      <c r="TR8"/>
+      <c r="TS8"/>
+      <c r="TT8"/>
+      <c r="TU8"/>
+      <c r="TV8"/>
+      <c r="TW8"/>
+      <c r="TX8"/>
+      <c r="TY8"/>
+      <c r="TZ8"/>
+      <c r="UA8"/>
+      <c r="UB8"/>
+      <c r="UC8"/>
+      <c r="UD8"/>
+      <c r="UE8"/>
+      <c r="UF8"/>
+      <c r="UG8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>276.0</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -7636,13 +8091,48 @@
       <c r="SV9"/>
       <c r="SW9"/>
       <c r="SX9"/>
+      <c r="SY9"/>
+      <c r="SZ9"/>
+      <c r="TA9"/>
+      <c r="TB9"/>
+      <c r="TC9"/>
+      <c r="TD9"/>
+      <c r="TE9"/>
+      <c r="TF9"/>
+      <c r="TG9"/>
+      <c r="TH9"/>
+      <c r="TI9"/>
+      <c r="TJ9"/>
+      <c r="TK9"/>
+      <c r="TL9"/>
+      <c r="TM9"/>
+      <c r="TN9"/>
+      <c r="TO9"/>
+      <c r="TP9"/>
+      <c r="TQ9"/>
+      <c r="TR9"/>
+      <c r="TS9"/>
+      <c r="TT9"/>
+      <c r="TU9"/>
+      <c r="TV9"/>
+      <c r="TW9"/>
+      <c r="TX9"/>
+      <c r="TY9"/>
+      <c r="TZ9"/>
+      <c r="UA9"/>
+      <c r="UB9"/>
+      <c r="UC9"/>
+      <c r="UD9"/>
+      <c r="UE9"/>
+      <c r="UF9"/>
+      <c r="UG9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>356.0</v>
       </c>
       <c r="B10" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -8180,13 +8670,48 @@
       <c r="SV10"/>
       <c r="SW10"/>
       <c r="SX10"/>
+      <c r="SY10"/>
+      <c r="SZ10"/>
+      <c r="TA10"/>
+      <c r="TB10"/>
+      <c r="TC10"/>
+      <c r="TD10"/>
+      <c r="TE10"/>
+      <c r="TF10"/>
+      <c r="TG10"/>
+      <c r="TH10"/>
+      <c r="TI10"/>
+      <c r="TJ10"/>
+      <c r="TK10"/>
+      <c r="TL10"/>
+      <c r="TM10"/>
+      <c r="TN10"/>
+      <c r="TO10"/>
+      <c r="TP10"/>
+      <c r="TQ10"/>
+      <c r="TR10"/>
+      <c r="TS10"/>
+      <c r="TT10"/>
+      <c r="TU10"/>
+      <c r="TV10"/>
+      <c r="TW10"/>
+      <c r="TX10"/>
+      <c r="TY10"/>
+      <c r="TZ10"/>
+      <c r="UA10"/>
+      <c r="UB10"/>
+      <c r="UC10"/>
+      <c r="UD10"/>
+      <c r="UE10"/>
+      <c r="UF10"/>
+      <c r="UG10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>360.0</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -8716,13 +9241,48 @@
       <c r="SV11"/>
       <c r="SW11"/>
       <c r="SX11"/>
+      <c r="SY11"/>
+      <c r="SZ11"/>
+      <c r="TA11"/>
+      <c r="TB11"/>
+      <c r="TC11"/>
+      <c r="TD11"/>
+      <c r="TE11"/>
+      <c r="TF11"/>
+      <c r="TG11"/>
+      <c r="TH11"/>
+      <c r="TI11"/>
+      <c r="TJ11"/>
+      <c r="TK11"/>
+      <c r="TL11"/>
+      <c r="TM11"/>
+      <c r="TN11"/>
+      <c r="TO11"/>
+      <c r="TP11"/>
+      <c r="TQ11"/>
+      <c r="TR11"/>
+      <c r="TS11"/>
+      <c r="TT11"/>
+      <c r="TU11"/>
+      <c r="TV11"/>
+      <c r="TW11"/>
+      <c r="TX11"/>
+      <c r="TY11"/>
+      <c r="TZ11"/>
+      <c r="UA11"/>
+      <c r="UB11"/>
+      <c r="UC11"/>
+      <c r="UD11"/>
+      <c r="UE11"/>
+      <c r="UF11"/>
+      <c r="UG11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>380.0</v>
       </c>
       <c r="B12" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -9260,13 +9820,48 @@
       <c r="SV12"/>
       <c r="SW12"/>
       <c r="SX12"/>
+      <c r="SY12"/>
+      <c r="SZ12"/>
+      <c r="TA12"/>
+      <c r="TB12"/>
+      <c r="TC12"/>
+      <c r="TD12"/>
+      <c r="TE12"/>
+      <c r="TF12"/>
+      <c r="TG12"/>
+      <c r="TH12"/>
+      <c r="TI12"/>
+      <c r="TJ12"/>
+      <c r="TK12"/>
+      <c r="TL12"/>
+      <c r="TM12"/>
+      <c r="TN12"/>
+      <c r="TO12"/>
+      <c r="TP12"/>
+      <c r="TQ12"/>
+      <c r="TR12"/>
+      <c r="TS12"/>
+      <c r="TT12"/>
+      <c r="TU12"/>
+      <c r="TV12"/>
+      <c r="TW12"/>
+      <c r="TX12"/>
+      <c r="TY12"/>
+      <c r="TZ12"/>
+      <c r="UA12"/>
+      <c r="UB12"/>
+      <c r="UC12"/>
+      <c r="UD12"/>
+      <c r="UE12"/>
+      <c r="UF12"/>
+      <c r="UG12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>392.0</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -9806,13 +10401,48 @@
       <c r="SV13"/>
       <c r="SW13"/>
       <c r="SX13"/>
+      <c r="SY13"/>
+      <c r="SZ13"/>
+      <c r="TA13"/>
+      <c r="TB13"/>
+      <c r="TC13"/>
+      <c r="TD13"/>
+      <c r="TE13"/>
+      <c r="TF13"/>
+      <c r="TG13"/>
+      <c r="TH13"/>
+      <c r="TI13"/>
+      <c r="TJ13"/>
+      <c r="TK13"/>
+      <c r="TL13"/>
+      <c r="TM13"/>
+      <c r="TN13"/>
+      <c r="TO13"/>
+      <c r="TP13"/>
+      <c r="TQ13"/>
+      <c r="TR13"/>
+      <c r="TS13"/>
+      <c r="TT13"/>
+      <c r="TU13"/>
+      <c r="TV13"/>
+      <c r="TW13"/>
+      <c r="TX13"/>
+      <c r="TY13"/>
+      <c r="TZ13"/>
+      <c r="UA13"/>
+      <c r="UB13"/>
+      <c r="UC13"/>
+      <c r="UD13"/>
+      <c r="UE13"/>
+      <c r="UF13"/>
+      <c r="UG13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>404.0</v>
       </c>
       <c r="B14" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -10342,13 +10972,48 @@
       <c r="SV14"/>
       <c r="SW14"/>
       <c r="SX14"/>
+      <c r="SY14"/>
+      <c r="SZ14"/>
+      <c r="TA14"/>
+      <c r="TB14"/>
+      <c r="TC14"/>
+      <c r="TD14"/>
+      <c r="TE14"/>
+      <c r="TF14"/>
+      <c r="TG14"/>
+      <c r="TH14"/>
+      <c r="TI14"/>
+      <c r="TJ14"/>
+      <c r="TK14"/>
+      <c r="TL14"/>
+      <c r="TM14"/>
+      <c r="TN14"/>
+      <c r="TO14"/>
+      <c r="TP14"/>
+      <c r="TQ14"/>
+      <c r="TR14"/>
+      <c r="TS14"/>
+      <c r="TT14"/>
+      <c r="TU14"/>
+      <c r="TV14"/>
+      <c r="TW14"/>
+      <c r="TX14"/>
+      <c r="TY14"/>
+      <c r="TZ14"/>
+      <c r="UA14"/>
+      <c r="UB14"/>
+      <c r="UC14"/>
+      <c r="UD14"/>
+      <c r="UE14"/>
+      <c r="UF14"/>
+      <c r="UG14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>484.0</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -10888,13 +11553,48 @@
       <c r="SV15"/>
       <c r="SW15"/>
       <c r="SX15"/>
+      <c r="SY15"/>
+      <c r="SZ15"/>
+      <c r="TA15"/>
+      <c r="TB15"/>
+      <c r="TC15"/>
+      <c r="TD15"/>
+      <c r="TE15"/>
+      <c r="TF15"/>
+      <c r="TG15"/>
+      <c r="TH15"/>
+      <c r="TI15"/>
+      <c r="TJ15"/>
+      <c r="TK15"/>
+      <c r="TL15"/>
+      <c r="TM15"/>
+      <c r="TN15"/>
+      <c r="TO15"/>
+      <c r="TP15"/>
+      <c r="TQ15"/>
+      <c r="TR15"/>
+      <c r="TS15"/>
+      <c r="TT15"/>
+      <c r="TU15"/>
+      <c r="TV15"/>
+      <c r="TW15"/>
+      <c r="TX15"/>
+      <c r="TY15"/>
+      <c r="TZ15"/>
+      <c r="UA15"/>
+      <c r="UB15"/>
+      <c r="UC15"/>
+      <c r="UD15"/>
+      <c r="UE15"/>
+      <c r="UF15"/>
+      <c r="UG15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>528.0</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -11432,13 +12132,48 @@
       <c r="SV16"/>
       <c r="SW16"/>
       <c r="SX16"/>
+      <c r="SY16"/>
+      <c r="SZ16"/>
+      <c r="TA16"/>
+      <c r="TB16"/>
+      <c r="TC16"/>
+      <c r="TD16"/>
+      <c r="TE16"/>
+      <c r="TF16"/>
+      <c r="TG16"/>
+      <c r="TH16"/>
+      <c r="TI16"/>
+      <c r="TJ16"/>
+      <c r="TK16"/>
+      <c r="TL16"/>
+      <c r="TM16"/>
+      <c r="TN16"/>
+      <c r="TO16"/>
+      <c r="TP16"/>
+      <c r="TQ16"/>
+      <c r="TR16"/>
+      <c r="TS16"/>
+      <c r="TT16"/>
+      <c r="TU16"/>
+      <c r="TV16"/>
+      <c r="TW16"/>
+      <c r="TX16"/>
+      <c r="TY16"/>
+      <c r="TZ16"/>
+      <c r="UA16"/>
+      <c r="UB16"/>
+      <c r="UC16"/>
+      <c r="UD16"/>
+      <c r="UE16"/>
+      <c r="UF16"/>
+      <c r="UG16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>616.0</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -11972,13 +12707,48 @@
       <c r="SV17"/>
       <c r="SW17"/>
       <c r="SX17"/>
+      <c r="SY17"/>
+      <c r="SZ17"/>
+      <c r="TA17"/>
+      <c r="TB17"/>
+      <c r="TC17"/>
+      <c r="TD17"/>
+      <c r="TE17"/>
+      <c r="TF17"/>
+      <c r="TG17"/>
+      <c r="TH17"/>
+      <c r="TI17"/>
+      <c r="TJ17"/>
+      <c r="TK17"/>
+      <c r="TL17"/>
+      <c r="TM17"/>
+      <c r="TN17"/>
+      <c r="TO17"/>
+      <c r="TP17"/>
+      <c r="TQ17"/>
+      <c r="TR17"/>
+      <c r="TS17"/>
+      <c r="TT17"/>
+      <c r="TU17"/>
+      <c r="TV17"/>
+      <c r="TW17"/>
+      <c r="TX17"/>
+      <c r="TY17"/>
+      <c r="TZ17"/>
+      <c r="UA17"/>
+      <c r="UB17"/>
+      <c r="UC17"/>
+      <c r="UD17"/>
+      <c r="UE17"/>
+      <c r="UF17"/>
+      <c r="UG17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>643.0</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -12500,13 +13270,48 @@
       <c r="SV18"/>
       <c r="SW18"/>
       <c r="SX18"/>
+      <c r="SY18"/>
+      <c r="SZ18"/>
+      <c r="TA18"/>
+      <c r="TB18"/>
+      <c r="TC18"/>
+      <c r="TD18"/>
+      <c r="TE18"/>
+      <c r="TF18"/>
+      <c r="TG18"/>
+      <c r="TH18"/>
+      <c r="TI18"/>
+      <c r="TJ18"/>
+      <c r="TK18"/>
+      <c r="TL18"/>
+      <c r="TM18"/>
+      <c r="TN18"/>
+      <c r="TO18"/>
+      <c r="TP18"/>
+      <c r="TQ18"/>
+      <c r="TR18"/>
+      <c r="TS18"/>
+      <c r="TT18"/>
+      <c r="TU18"/>
+      <c r="TV18"/>
+      <c r="TW18"/>
+      <c r="TX18"/>
+      <c r="TY18"/>
+      <c r="TZ18"/>
+      <c r="UA18"/>
+      <c r="UB18"/>
+      <c r="UC18"/>
+      <c r="UD18"/>
+      <c r="UE18"/>
+      <c r="UF18"/>
+      <c r="UG18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>710.0</v>
       </c>
       <c r="B19" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -13040,13 +13845,48 @@
       <c r="SV19"/>
       <c r="SW19"/>
       <c r="SX19"/>
+      <c r="SY19"/>
+      <c r="SZ19"/>
+      <c r="TA19"/>
+      <c r="TB19"/>
+      <c r="TC19"/>
+      <c r="TD19"/>
+      <c r="TE19"/>
+      <c r="TF19"/>
+      <c r="TG19"/>
+      <c r="TH19"/>
+      <c r="TI19"/>
+      <c r="TJ19"/>
+      <c r="TK19"/>
+      <c r="TL19"/>
+      <c r="TM19"/>
+      <c r="TN19"/>
+      <c r="TO19"/>
+      <c r="TP19"/>
+      <c r="TQ19"/>
+      <c r="TR19"/>
+      <c r="TS19"/>
+      <c r="TT19"/>
+      <c r="TU19"/>
+      <c r="TV19"/>
+      <c r="TW19"/>
+      <c r="TX19"/>
+      <c r="TY19"/>
+      <c r="TZ19"/>
+      <c r="UA19"/>
+      <c r="UB19"/>
+      <c r="UC19"/>
+      <c r="UD19"/>
+      <c r="UE19"/>
+      <c r="UF19"/>
+      <c r="UG19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>724.0</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -13586,13 +14426,48 @@
       <c r="SV20"/>
       <c r="SW20"/>
       <c r="SX20"/>
+      <c r="SY20"/>
+      <c r="SZ20"/>
+      <c r="TA20"/>
+      <c r="TB20"/>
+      <c r="TC20"/>
+      <c r="TD20"/>
+      <c r="TE20"/>
+      <c r="TF20"/>
+      <c r="TG20"/>
+      <c r="TH20"/>
+      <c r="TI20"/>
+      <c r="TJ20"/>
+      <c r="TK20"/>
+      <c r="TL20"/>
+      <c r="TM20"/>
+      <c r="TN20"/>
+      <c r="TO20"/>
+      <c r="TP20"/>
+      <c r="TQ20"/>
+      <c r="TR20"/>
+      <c r="TS20"/>
+      <c r="TT20"/>
+      <c r="TU20"/>
+      <c r="TV20"/>
+      <c r="TW20"/>
+      <c r="TX20"/>
+      <c r="TY20"/>
+      <c r="TZ20"/>
+      <c r="UA20"/>
+      <c r="UB20"/>
+      <c r="UC20"/>
+      <c r="UD20"/>
+      <c r="UE20"/>
+      <c r="UF20"/>
+      <c r="UG20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>752.0</v>
       </c>
       <c r="B21" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -14132,13 +15007,48 @@
       <c r="SV21"/>
       <c r="SW21"/>
       <c r="SX21"/>
+      <c r="SY21"/>
+      <c r="SZ21"/>
+      <c r="TA21"/>
+      <c r="TB21"/>
+      <c r="TC21"/>
+      <c r="TD21"/>
+      <c r="TE21"/>
+      <c r="TF21"/>
+      <c r="TG21"/>
+      <c r="TH21"/>
+      <c r="TI21"/>
+      <c r="TJ21"/>
+      <c r="TK21"/>
+      <c r="TL21"/>
+      <c r="TM21"/>
+      <c r="TN21"/>
+      <c r="TO21"/>
+      <c r="TP21"/>
+      <c r="TQ21"/>
+      <c r="TR21"/>
+      <c r="TS21"/>
+      <c r="TT21"/>
+      <c r="TU21"/>
+      <c r="TV21"/>
+      <c r="TW21"/>
+      <c r="TX21"/>
+      <c r="TY21"/>
+      <c r="TZ21"/>
+      <c r="UA21"/>
+      <c r="UB21"/>
+      <c r="UC21"/>
+      <c r="UD21"/>
+      <c r="UE21"/>
+      <c r="UF21"/>
+      <c r="UG21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>764.0</v>
       </c>
       <c r="B22" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -14674,13 +15584,48 @@
       <c r="SV22"/>
       <c r="SW22"/>
       <c r="SX22"/>
+      <c r="SY22"/>
+      <c r="SZ22"/>
+      <c r="TA22"/>
+      <c r="TB22"/>
+      <c r="TC22"/>
+      <c r="TD22"/>
+      <c r="TE22"/>
+      <c r="TF22"/>
+      <c r="TG22"/>
+      <c r="TH22"/>
+      <c r="TI22"/>
+      <c r="TJ22"/>
+      <c r="TK22"/>
+      <c r="TL22"/>
+      <c r="TM22"/>
+      <c r="TN22"/>
+      <c r="TO22"/>
+      <c r="TP22"/>
+      <c r="TQ22"/>
+      <c r="TR22"/>
+      <c r="TS22"/>
+      <c r="TT22"/>
+      <c r="TU22"/>
+      <c r="TV22"/>
+      <c r="TW22"/>
+      <c r="TX22"/>
+      <c r="TY22"/>
+      <c r="TZ22"/>
+      <c r="UA22"/>
+      <c r="UB22"/>
+      <c r="UC22"/>
+      <c r="UD22"/>
+      <c r="UE22"/>
+      <c r="UF22"/>
+      <c r="UG22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>792.0</v>
       </c>
       <c r="B23" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -15214,13 +16159,48 @@
       <c r="SV23"/>
       <c r="SW23"/>
       <c r="SX23"/>
+      <c r="SY23"/>
+      <c r="SZ23"/>
+      <c r="TA23"/>
+      <c r="TB23"/>
+      <c r="TC23"/>
+      <c r="TD23"/>
+      <c r="TE23"/>
+      <c r="TF23"/>
+      <c r="TG23"/>
+      <c r="TH23"/>
+      <c r="TI23"/>
+      <c r="TJ23"/>
+      <c r="TK23"/>
+      <c r="TL23"/>
+      <c r="TM23"/>
+      <c r="TN23"/>
+      <c r="TO23"/>
+      <c r="TP23"/>
+      <c r="TQ23"/>
+      <c r="TR23"/>
+      <c r="TS23"/>
+      <c r="TT23"/>
+      <c r="TU23"/>
+      <c r="TV23"/>
+      <c r="TW23"/>
+      <c r="TX23"/>
+      <c r="TY23"/>
+      <c r="TZ23"/>
+      <c r="UA23"/>
+      <c r="UB23"/>
+      <c r="UC23"/>
+      <c r="UD23"/>
+      <c r="UE23"/>
+      <c r="UF23"/>
+      <c r="UG23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>826.0</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -15758,13 +16738,48 @@
       <c r="SV24"/>
       <c r="SW24"/>
       <c r="SX24"/>
+      <c r="SY24"/>
+      <c r="SZ24"/>
+      <c r="TA24"/>
+      <c r="TB24"/>
+      <c r="TC24"/>
+      <c r="TD24"/>
+      <c r="TE24"/>
+      <c r="TF24"/>
+      <c r="TG24"/>
+      <c r="TH24"/>
+      <c r="TI24"/>
+      <c r="TJ24"/>
+      <c r="TK24"/>
+      <c r="TL24"/>
+      <c r="TM24"/>
+      <c r="TN24"/>
+      <c r="TO24"/>
+      <c r="TP24"/>
+      <c r="TQ24"/>
+      <c r="TR24"/>
+      <c r="TS24"/>
+      <c r="TT24"/>
+      <c r="TU24"/>
+      <c r="TV24"/>
+      <c r="TW24"/>
+      <c r="TX24"/>
+      <c r="TY24"/>
+      <c r="TZ24"/>
+      <c r="UA24"/>
+      <c r="UB24"/>
+      <c r="UC24"/>
+      <c r="UD24"/>
+      <c r="UE24"/>
+      <c r="UF24"/>
+      <c r="UG24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>840.0</v>
       </c>
       <c r="B25" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -16304,6 +17319,41 @@
       <c r="SV25"/>
       <c r="SW25"/>
       <c r="SX25"/>
+      <c r="SY25"/>
+      <c r="SZ25"/>
+      <c r="TA25"/>
+      <c r="TB25"/>
+      <c r="TC25"/>
+      <c r="TD25"/>
+      <c r="TE25"/>
+      <c r="TF25"/>
+      <c r="TG25"/>
+      <c r="TH25"/>
+      <c r="TI25"/>
+      <c r="TJ25"/>
+      <c r="TK25"/>
+      <c r="TL25"/>
+      <c r="TM25"/>
+      <c r="TN25"/>
+      <c r="TO25"/>
+      <c r="TP25"/>
+      <c r="TQ25"/>
+      <c r="TR25"/>
+      <c r="TS25"/>
+      <c r="TT25"/>
+      <c r="TU25"/>
+      <c r="TV25"/>
+      <c r="TW25"/>
+      <c r="TX25"/>
+      <c r="TY25"/>
+      <c r="TZ25"/>
+      <c r="UA25"/>
+      <c r="UB25"/>
+      <c r="UC25"/>
+      <c r="UD25"/>
+      <c r="UE25"/>
+      <c r="UF25"/>
+      <c r="UG25"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -16323,13 +17373,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="C1" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="D1" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2">
@@ -16337,7 +17387,7 @@
         <v>36.0</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C2" t="n">
         <v>1900.0</v>
@@ -16351,7 +17401,7 @@
         <v>76.0</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C3" t="n">
         <v>1900.0</v>
@@ -16365,7 +17415,7 @@
         <v>124.0</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C4" t="n">
         <v>1900.0</v>
@@ -16379,7 +17429,7 @@
         <v>250.0</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C5" t="n">
         <v>1900.0</v>
@@ -16393,7 +17443,7 @@
         <v>276.0</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C6" t="n">
         <v>1900.0</v>
@@ -16407,7 +17457,7 @@
         <v>356.0</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C7" t="n">
         <v>1900.0</v>
@@ -16421,7 +17471,7 @@
         <v>380.0</v>
       </c>
       <c r="B8" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C8" t="n">
         <v>1900.0</v>
@@ -16435,7 +17485,7 @@
         <v>392.0</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C9" t="n">
         <v>1900.0</v>
@@ -16449,7 +17499,7 @@
         <v>484.0</v>
       </c>
       <c r="B10" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C10" t="n">
         <v>1900.0</v>
@@ -16463,7 +17513,7 @@
         <v>528.0</v>
       </c>
       <c r="B11" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C11" t="n">
         <v>1900.0</v>
@@ -16477,7 +17527,7 @@
         <v>724.0</v>
       </c>
       <c r="B12" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C12" t="n">
         <v>1900.0</v>
@@ -16491,7 +17541,7 @@
         <v>752.0</v>
       </c>
       <c r="B13" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C13" t="n">
         <v>1900.0</v>
@@ -16505,7 +17555,7 @@
         <v>826.0</v>
       </c>
       <c r="B14" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C14" t="n">
         <v>1900.0</v>
@@ -16519,7 +17569,7 @@
         <v>840.0</v>
       </c>
       <c r="B15" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C15" t="n">
         <v>1900.0</v>
@@ -16533,7 +17583,7 @@
         <v>32.0</v>
       </c>
       <c r="B16" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C16" t="n">
         <v>1910.0</v>
@@ -16547,7 +17597,7 @@
         <v>36.0</v>
       </c>
       <c r="B17" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C17" t="n">
         <v>1910.0</v>
@@ -16561,7 +17611,7 @@
         <v>124.0</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C18" t="n">
         <v>1910.0</v>
@@ -16575,7 +17625,7 @@
         <v>818.0</v>
       </c>
       <c r="B19" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C19" t="n">
         <v>1910.0</v>
@@ -16589,7 +17639,7 @@
         <v>250.0</v>
       </c>
       <c r="B20" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C20" t="n">
         <v>1910.0</v>
@@ -16603,7 +17653,7 @@
         <v>276.0</v>
       </c>
       <c r="B21" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C21" t="n">
         <v>1910.0</v>
@@ -16617,7 +17667,7 @@
         <v>356.0</v>
       </c>
       <c r="B22" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C22" t="n">
         <v>1910.0</v>
@@ -16631,7 +17681,7 @@
         <v>380.0</v>
       </c>
       <c r="B23" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C23" t="n">
         <v>1910.0</v>
@@ -16645,7 +17695,7 @@
         <v>392.0</v>
       </c>
       <c r="B24" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C24" t="n">
         <v>1910.0</v>
@@ -16659,7 +17709,7 @@
         <v>484.0</v>
       </c>
       <c r="B25" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C25" t="n">
         <v>1910.0</v>
@@ -16673,7 +17723,7 @@
         <v>724.0</v>
       </c>
       <c r="B26" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C26" t="n">
         <v>1910.0</v>
@@ -16687,7 +17737,7 @@
         <v>752.0</v>
       </c>
       <c r="B27" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C27" t="n">
         <v>1910.0</v>
@@ -16701,7 +17751,7 @@
         <v>826.0</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C28" t="n">
         <v>1910.0</v>
@@ -16715,7 +17765,7 @@
         <v>840.0</v>
       </c>
       <c r="B29" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C29" t="n">
         <v>1910.0</v>
@@ -16729,7 +17779,7 @@
         <v>36.0</v>
       </c>
       <c r="B30" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C30" t="n">
         <v>1920.0</v>
@@ -16743,7 +17793,7 @@
         <v>76.0</v>
       </c>
       <c r="B31" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C31" t="n">
         <v>1920.0</v>
@@ -16757,7 +17807,7 @@
         <v>124.0</v>
       </c>
       <c r="B32" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C32" t="n">
         <v>1920.0</v>
@@ -16771,7 +17821,7 @@
         <v>818.0</v>
       </c>
       <c r="B33" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C33" t="n">
         <v>1920.0</v>
@@ -16785,7 +17835,7 @@
         <v>250.0</v>
       </c>
       <c r="B34" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C34" t="n">
         <v>1920.0</v>
@@ -16799,7 +17849,7 @@
         <v>276.0</v>
       </c>
       <c r="B35" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C35" t="n">
         <v>1920.0</v>
@@ -16813,7 +17863,7 @@
         <v>356.0</v>
       </c>
       <c r="B36" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C36" t="n">
         <v>1920.0</v>
@@ -16827,7 +17877,7 @@
         <v>380.0</v>
       </c>
       <c r="B37" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C37" t="n">
         <v>1920.0</v>
@@ -16841,7 +17891,7 @@
         <v>392.0</v>
       </c>
       <c r="B38" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C38" t="n">
         <v>1920.0</v>
@@ -16855,7 +17905,7 @@
         <v>484.0</v>
       </c>
       <c r="B39" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C39" t="n">
         <v>1920.0</v>
@@ -16869,7 +17919,7 @@
         <v>528.0</v>
       </c>
       <c r="B40" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C40" t="n">
         <v>1920.0</v>
@@ -16883,7 +17933,7 @@
         <v>616.0</v>
       </c>
       <c r="B41" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C41" t="n">
         <v>1920.0</v>
@@ -16897,7 +17947,7 @@
         <v>724.0</v>
       </c>
       <c r="B42" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C42" t="n">
         <v>1920.0</v>
@@ -16911,7 +17961,7 @@
         <v>752.0</v>
       </c>
       <c r="B43" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C43" t="n">
         <v>1920.0</v>
@@ -16925,7 +17975,7 @@
         <v>764.0</v>
       </c>
       <c r="B44" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C44" t="n">
         <v>1920.0</v>
@@ -16939,7 +17989,7 @@
         <v>826.0</v>
       </c>
       <c r="B45" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C45" t="n">
         <v>1920.0</v>
@@ -16953,7 +18003,7 @@
         <v>840.0</v>
       </c>
       <c r="B46" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C46" t="n">
         <v>1920.0</v>
@@ -16967,7 +18017,7 @@
         <v>36.0</v>
       </c>
       <c r="B47" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C47" t="n">
         <v>1930.0</v>
@@ -16981,7 +18031,7 @@
         <v>124.0</v>
       </c>
       <c r="B48" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C48" t="n">
         <v>1930.0</v>
@@ -16995,7 +18045,7 @@
         <v>818.0</v>
       </c>
       <c r="B49" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C49" t="n">
         <v>1930.0</v>
@@ -17009,7 +18059,7 @@
         <v>250.0</v>
       </c>
       <c r="B50" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C50" t="n">
         <v>1930.0</v>
@@ -17023,7 +18073,7 @@
         <v>276.0</v>
       </c>
       <c r="B51" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C51" t="n">
         <v>1930.0</v>
@@ -17037,7 +18087,7 @@
         <v>356.0</v>
       </c>
       <c r="B52" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C52" t="n">
         <v>1930.0</v>
@@ -17051,7 +18101,7 @@
         <v>380.0</v>
       </c>
       <c r="B53" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C53" t="n">
         <v>1930.0</v>
@@ -17065,7 +18115,7 @@
         <v>392.0</v>
       </c>
       <c r="B54" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C54" t="n">
         <v>1930.0</v>
@@ -17079,7 +18129,7 @@
         <v>484.0</v>
       </c>
       <c r="B55" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C55" t="n">
         <v>1930.0</v>
@@ -17093,7 +18143,7 @@
         <v>528.0</v>
       </c>
       <c r="B56" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C56" t="n">
         <v>1930.0</v>
@@ -17107,7 +18157,7 @@
         <v>616.0</v>
       </c>
       <c r="B57" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C57" t="n">
         <v>1930.0</v>
@@ -17121,7 +18171,7 @@
         <v>710.0</v>
       </c>
       <c r="B58" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C58" t="n">
         <v>1930.0</v>
@@ -17135,7 +18185,7 @@
         <v>724.0</v>
       </c>
       <c r="B59" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C59" t="n">
         <v>1930.0</v>
@@ -17149,7 +18199,7 @@
         <v>752.0</v>
       </c>
       <c r="B60" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C60" t="n">
         <v>1930.0</v>
@@ -17163,7 +18213,7 @@
         <v>764.0</v>
       </c>
       <c r="B61" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C61" t="n">
         <v>1930.0</v>
@@ -17177,7 +18227,7 @@
         <v>792.0</v>
       </c>
       <c r="B62" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C62" t="n">
         <v>1930.0</v>
@@ -17191,7 +18241,7 @@
         <v>826.0</v>
       </c>
       <c r="B63" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C63" t="n">
         <v>1930.0</v>
@@ -17205,7 +18255,7 @@
         <v>840.0</v>
       </c>
       <c r="B64" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C64" t="n">
         <v>1930.0</v>
@@ -17219,7 +18269,7 @@
         <v>32.0</v>
       </c>
       <c r="B65" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C65" t="n">
         <v>1940.0</v>
@@ -17233,7 +18283,7 @@
         <v>36.0</v>
       </c>
       <c r="B66" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C66" t="n">
         <v>1940.0</v>
@@ -17247,7 +18297,7 @@
         <v>76.0</v>
       </c>
       <c r="B67" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C67" t="n">
         <v>1940.0</v>
@@ -17261,7 +18311,7 @@
         <v>124.0</v>
       </c>
       <c r="B68" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C68" t="n">
         <v>1940.0</v>
@@ -17275,7 +18325,7 @@
         <v>818.0</v>
       </c>
       <c r="B69" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C69" t="n">
         <v>1940.0</v>
@@ -17289,7 +18339,7 @@
         <v>250.0</v>
       </c>
       <c r="B70" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C70" t="n">
         <v>1940.0</v>
@@ -17303,7 +18353,7 @@
         <v>276.0</v>
       </c>
       <c r="B71" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C71" t="n">
         <v>1940.0</v>
@@ -17317,7 +18367,7 @@
         <v>392.0</v>
       </c>
       <c r="B72" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C72" t="n">
         <v>1940.0</v>
@@ -17331,7 +18381,7 @@
         <v>484.0</v>
       </c>
       <c r="B73" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C73" t="n">
         <v>1940.0</v>
@@ -17345,7 +18395,7 @@
         <v>528.0</v>
       </c>
       <c r="B74" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C74" t="n">
         <v>1940.0</v>
@@ -17359,7 +18409,7 @@
         <v>710.0</v>
       </c>
       <c r="B75" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C75" t="n">
         <v>1940.0</v>
@@ -17373,7 +18423,7 @@
         <v>724.0</v>
       </c>
       <c r="B76" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C76" t="n">
         <v>1940.0</v>
@@ -17387,7 +18437,7 @@
         <v>752.0</v>
       </c>
       <c r="B77" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C77" t="n">
         <v>1940.0</v>
@@ -17401,7 +18451,7 @@
         <v>764.0</v>
       </c>
       <c r="B78" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C78" t="n">
         <v>1940.0</v>
@@ -17415,7 +18465,7 @@
         <v>792.0</v>
       </c>
       <c r="B79" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C79" t="n">
         <v>1940.0</v>
@@ -17429,7 +18479,7 @@
         <v>840.0</v>
       </c>
       <c r="B80" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C80" t="n">
         <v>1940.0</v>
@@ -17443,7 +18493,7 @@
         <v>32.0</v>
       </c>
       <c r="B81" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C81" t="n">
         <v>1950.0</v>
@@ -17457,7 +18507,7 @@
         <v>36.0</v>
       </c>
       <c r="B82" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C82" t="n">
         <v>1950.0</v>
@@ -17471,7 +18521,7 @@
         <v>76.0</v>
       </c>
       <c r="B83" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C83" t="n">
         <v>1950.0</v>
@@ -17485,7 +18535,7 @@
         <v>124.0</v>
       </c>
       <c r="B84" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C84" t="n">
         <v>1950.0</v>
@@ -17499,7 +18549,7 @@
         <v>156.0</v>
       </c>
       <c r="B85" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C85" t="n">
         <v>1950.0</v>
@@ -17513,7 +18563,7 @@
         <v>818.0</v>
       </c>
       <c r="B86" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C86" t="n">
         <v>1950.0</v>
@@ -17527,7 +18577,7 @@
         <v>250.0</v>
       </c>
       <c r="B87" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C87" t="n">
         <v>1950.0</v>
@@ -17541,7 +18591,7 @@
         <v>276.0</v>
       </c>
       <c r="B88" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C88" t="n">
         <v>1950.0</v>
@@ -17555,7 +18605,7 @@
         <v>356.0</v>
       </c>
       <c r="B89" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C89" t="n">
         <v>1950.0</v>
@@ -17569,7 +18619,7 @@
         <v>360.0</v>
       </c>
       <c r="B90" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C90" t="n">
         <v>1950.0</v>
@@ -17583,7 +18633,7 @@
         <v>380.0</v>
       </c>
       <c r="B91" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C91" t="n">
         <v>1950.0</v>
@@ -17597,7 +18647,7 @@
         <v>392.0</v>
       </c>
       <c r="B92" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C92" t="n">
         <v>1950.0</v>
@@ -17611,7 +18661,7 @@
         <v>404.0</v>
       </c>
       <c r="B93" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C93" t="n">
         <v>1950.0</v>
@@ -17625,7 +18675,7 @@
         <v>484.0</v>
       </c>
       <c r="B94" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C94" t="n">
         <v>1950.0</v>
@@ -17639,7 +18689,7 @@
         <v>528.0</v>
       </c>
       <c r="B95" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C95" t="n">
         <v>1950.0</v>
@@ -17653,7 +18703,7 @@
         <v>616.0</v>
       </c>
       <c r="B96" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C96" t="n">
         <v>1950.0</v>
@@ -17667,7 +18717,7 @@
         <v>710.0</v>
       </c>
       <c r="B97" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C97" t="n">
         <v>1950.0</v>
@@ -17681,7 +18731,7 @@
         <v>724.0</v>
       </c>
       <c r="B98" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C98" t="n">
         <v>1950.0</v>
@@ -17695,7 +18745,7 @@
         <v>752.0</v>
       </c>
       <c r="B99" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C99" t="n">
         <v>1950.0</v>
@@ -17709,7 +18759,7 @@
         <v>764.0</v>
       </c>
       <c r="B100" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C100" t="n">
         <v>1950.0</v>
@@ -17723,7 +18773,7 @@
         <v>792.0</v>
       </c>
       <c r="B101" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C101" t="n">
         <v>1950.0</v>
@@ -17737,7 +18787,7 @@
         <v>826.0</v>
       </c>
       <c r="B102" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C102" t="n">
         <v>1950.0</v>
@@ -17751,7 +18801,7 @@
         <v>840.0</v>
       </c>
       <c r="B103" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C103" t="n">
         <v>1950.0</v>
@@ -17765,7 +18815,7 @@
         <v>32.0</v>
       </c>
       <c r="B104" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C104" t="n">
         <v>1960.0</v>
@@ -17779,7 +18829,7 @@
         <v>36.0</v>
       </c>
       <c r="B105" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C105" t="n">
         <v>1960.0</v>
@@ -17793,7 +18843,7 @@
         <v>76.0</v>
       </c>
       <c r="B106" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C106" t="n">
         <v>1960.0</v>
@@ -17807,7 +18857,7 @@
         <v>124.0</v>
       </c>
       <c r="B107" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C107" t="n">
         <v>1960.0</v>
@@ -17821,7 +18871,7 @@
         <v>156.0</v>
       </c>
       <c r="B108" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C108" t="n">
         <v>1960.0</v>
@@ -17835,7 +18885,7 @@
         <v>818.0</v>
       </c>
       <c r="B109" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C109" t="n">
         <v>1960.0</v>
@@ -17849,7 +18899,7 @@
         <v>250.0</v>
       </c>
       <c r="B110" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C110" t="n">
         <v>1960.0</v>
@@ -17863,7 +18913,7 @@
         <v>276.0</v>
       </c>
       <c r="B111" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C111" t="n">
         <v>1960.0</v>
@@ -17877,7 +18927,7 @@
         <v>356.0</v>
       </c>
       <c r="B112" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C112" t="n">
         <v>1960.0</v>
@@ -17891,7 +18941,7 @@
         <v>360.0</v>
       </c>
       <c r="B113" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C113" t="n">
         <v>1960.0</v>
@@ -17905,7 +18955,7 @@
         <v>380.0</v>
       </c>
       <c r="B114" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C114" t="n">
         <v>1960.0</v>
@@ -17919,7 +18969,7 @@
         <v>392.0</v>
       </c>
       <c r="B115" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C115" t="n">
         <v>1960.0</v>
@@ -17933,7 +18983,7 @@
         <v>404.0</v>
       </c>
       <c r="B116" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C116" t="n">
         <v>1960.0</v>
@@ -17947,7 +18997,7 @@
         <v>484.0</v>
       </c>
       <c r="B117" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C117" t="n">
         <v>1960.0</v>
@@ -17961,7 +19011,7 @@
         <v>528.0</v>
       </c>
       <c r="B118" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C118" t="n">
         <v>1960.0</v>
@@ -17975,7 +19025,7 @@
         <v>616.0</v>
       </c>
       <c r="B119" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C119" t="n">
         <v>1960.0</v>
@@ -17989,7 +19039,7 @@
         <v>710.0</v>
       </c>
       <c r="B120" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C120" t="n">
         <v>1960.0</v>
@@ -18003,7 +19053,7 @@
         <v>724.0</v>
       </c>
       <c r="B121" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C121" t="n">
         <v>1960.0</v>
@@ -18017,7 +19067,7 @@
         <v>752.0</v>
       </c>
       <c r="B122" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C122" t="n">
         <v>1960.0</v>
@@ -18031,7 +19081,7 @@
         <v>764.0</v>
       </c>
       <c r="B123" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C123" t="n">
         <v>1960.0</v>
@@ -18045,7 +19095,7 @@
         <v>792.0</v>
       </c>
       <c r="B124" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C124" t="n">
         <v>1960.0</v>
@@ -18059,7 +19109,7 @@
         <v>826.0</v>
       </c>
       <c r="B125" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C125" t="n">
         <v>1960.0</v>
@@ -18073,7 +19123,7 @@
         <v>840.0</v>
       </c>
       <c r="B126" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C126" t="n">
         <v>1960.0</v>
@@ -18087,7 +19137,7 @@
         <v>32.0</v>
       </c>
       <c r="B127" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C127" t="n">
         <v>1970.0</v>
@@ -18101,7 +19151,7 @@
         <v>36.0</v>
       </c>
       <c r="B128" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C128" t="n">
         <v>1970.0</v>
@@ -18115,7 +19165,7 @@
         <v>76.0</v>
       </c>
       <c r="B129" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C129" t="n">
         <v>1970.0</v>
@@ -18129,7 +19179,7 @@
         <v>124.0</v>
       </c>
       <c r="B130" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C130" t="n">
         <v>1970.0</v>
@@ -18143,7 +19193,7 @@
         <v>156.0</v>
       </c>
       <c r="B131" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C131" t="n">
         <v>1970.0</v>
@@ -18157,7 +19207,7 @@
         <v>818.0</v>
       </c>
       <c r="B132" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C132" t="n">
         <v>1970.0</v>
@@ -18171,7 +19221,7 @@
         <v>250.0</v>
       </c>
       <c r="B133" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C133" t="n">
         <v>1970.0</v>
@@ -18185,7 +19235,7 @@
         <v>276.0</v>
       </c>
       <c r="B134" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C134" t="n">
         <v>1970.0</v>
@@ -18199,7 +19249,7 @@
         <v>356.0</v>
       </c>
       <c r="B135" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C135" t="n">
         <v>1970.0</v>
@@ -18213,7 +19263,7 @@
         <v>360.0</v>
       </c>
       <c r="B136" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C136" t="n">
         <v>1970.0</v>
@@ -18227,7 +19277,7 @@
         <v>380.0</v>
       </c>
       <c r="B137" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C137" t="n">
         <v>1970.0</v>
@@ -18241,7 +19291,7 @@
         <v>392.0</v>
       </c>
       <c r="B138" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C138" t="n">
         <v>1970.0</v>
@@ -18255,7 +19305,7 @@
         <v>404.0</v>
       </c>
       <c r="B139" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C139" t="n">
         <v>1970.0</v>
@@ -18269,7 +19319,7 @@
         <v>484.0</v>
       </c>
       <c r="B140" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C140" t="n">
         <v>1970.0</v>
@@ -18283,7 +19333,7 @@
         <v>528.0</v>
       </c>
       <c r="B141" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C141" t="n">
         <v>1970.0</v>
@@ -18297,7 +19347,7 @@
         <v>616.0</v>
       </c>
       <c r="B142" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C142" t="n">
         <v>1970.0</v>
@@ -18311,7 +19361,7 @@
         <v>710.0</v>
       </c>
       <c r="B143" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C143" t="n">
         <v>1970.0</v>
@@ -18325,7 +19375,7 @@
         <v>724.0</v>
       </c>
       <c r="B144" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C144" t="n">
         <v>1970.0</v>
@@ -18339,7 +19389,7 @@
         <v>752.0</v>
       </c>
       <c r="B145" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C145" t="n">
         <v>1970.0</v>
@@ -18353,7 +19403,7 @@
         <v>764.0</v>
       </c>
       <c r="B146" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C146" t="n">
         <v>1970.0</v>
@@ -18367,7 +19417,7 @@
         <v>792.0</v>
       </c>
       <c r="B147" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C147" t="n">
         <v>1970.0</v>
@@ -18381,7 +19431,7 @@
         <v>826.0</v>
       </c>
       <c r="B148" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C148" t="n">
         <v>1970.0</v>
@@ -18395,7 +19445,7 @@
         <v>840.0</v>
       </c>
       <c r="B149" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C149" t="n">
         <v>1970.0</v>
@@ -18409,7 +19459,7 @@
         <v>32.0</v>
       </c>
       <c r="B150" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C150" t="n">
         <v>1980.0</v>
@@ -18423,7 +19473,7 @@
         <v>36.0</v>
       </c>
       <c r="B151" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C151" t="n">
         <v>1980.0</v>
@@ -18437,7 +19487,7 @@
         <v>76.0</v>
       </c>
       <c r="B152" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C152" t="n">
         <v>1980.0</v>
@@ -18451,7 +19501,7 @@
         <v>124.0</v>
       </c>
       <c r="B153" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C153" t="n">
         <v>1980.0</v>
@@ -18465,7 +19515,7 @@
         <v>156.0</v>
       </c>
       <c r="B154" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C154" t="n">
         <v>1980.0</v>
@@ -18479,7 +19529,7 @@
         <v>818.0</v>
       </c>
       <c r="B155" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C155" t="n">
         <v>1980.0</v>
@@ -18493,7 +19543,7 @@
         <v>250.0</v>
       </c>
       <c r="B156" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C156" t="n">
         <v>1980.0</v>
@@ -18507,7 +19557,7 @@
         <v>276.0</v>
       </c>
       <c r="B157" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C157" t="n">
         <v>1980.0</v>
@@ -18521,7 +19571,7 @@
         <v>356.0</v>
       </c>
       <c r="B158" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C158" t="n">
         <v>1980.0</v>
@@ -18535,7 +19585,7 @@
         <v>360.0</v>
       </c>
       <c r="B159" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C159" t="n">
         <v>1980.0</v>
@@ -18549,7 +19599,7 @@
         <v>380.0</v>
       </c>
       <c r="B160" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C160" t="n">
         <v>1980.0</v>
@@ -18563,7 +19613,7 @@
         <v>392.0</v>
       </c>
       <c r="B161" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C161" t="n">
         <v>1980.0</v>
@@ -18577,7 +19627,7 @@
         <v>404.0</v>
       </c>
       <c r="B162" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C162" t="n">
         <v>1980.0</v>
@@ -18591,7 +19641,7 @@
         <v>484.0</v>
       </c>
       <c r="B163" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C163" t="n">
         <v>1980.0</v>
@@ -18605,7 +19655,7 @@
         <v>528.0</v>
       </c>
       <c r="B164" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C164" t="n">
         <v>1980.0</v>
@@ -18619,7 +19669,7 @@
         <v>616.0</v>
       </c>
       <c r="B165" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C165" t="n">
         <v>1980.0</v>
@@ -18633,7 +19683,7 @@
         <v>710.0</v>
       </c>
       <c r="B166" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C166" t="n">
         <v>1980.0</v>
@@ -18647,7 +19697,7 @@
         <v>724.0</v>
       </c>
       <c r="B167" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C167" t="n">
         <v>1980.0</v>
@@ -18661,7 +19711,7 @@
         <v>752.0</v>
       </c>
       <c r="B168" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C168" t="n">
         <v>1980.0</v>
@@ -18675,7 +19725,7 @@
         <v>764.0</v>
       </c>
       <c r="B169" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C169" t="n">
         <v>1980.0</v>
@@ -18689,7 +19739,7 @@
         <v>792.0</v>
       </c>
       <c r="B170" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C170" t="n">
         <v>1980.0</v>
@@ -18703,7 +19753,7 @@
         <v>826.0</v>
       </c>
       <c r="B171" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C171" t="n">
         <v>1980.0</v>
@@ -18717,7 +19767,7 @@
         <v>840.0</v>
       </c>
       <c r="B172" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C172" t="n">
         <v>1980.0</v>
@@ -18731,7 +19781,7 @@
         <v>32.0</v>
       </c>
       <c r="B173" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C173" t="n">
         <v>1990.0</v>
@@ -18745,7 +19795,7 @@
         <v>36.0</v>
       </c>
       <c r="B174" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C174" t="n">
         <v>1990.0</v>
@@ -18759,7 +19809,7 @@
         <v>76.0</v>
       </c>
       <c r="B175" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C175" t="n">
         <v>1990.0</v>
@@ -18773,7 +19823,7 @@
         <v>124.0</v>
       </c>
       <c r="B176" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C176" t="n">
         <v>1990.0</v>
@@ -18787,7 +19837,7 @@
         <v>156.0</v>
       </c>
       <c r="B177" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C177" t="n">
         <v>1990.0</v>
@@ -18801,7 +19851,7 @@
         <v>818.0</v>
       </c>
       <c r="B178" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C178" t="n">
         <v>1990.0</v>
@@ -18815,7 +19865,7 @@
         <v>250.0</v>
       </c>
       <c r="B179" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C179" t="n">
         <v>1990.0</v>
@@ -18829,7 +19879,7 @@
         <v>276.0</v>
       </c>
       <c r="B180" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C180" t="n">
         <v>1990.0</v>
@@ -18843,7 +19893,7 @@
         <v>356.0</v>
       </c>
       <c r="B181" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C181" t="n">
         <v>1990.0</v>
@@ -18857,7 +19907,7 @@
         <v>360.0</v>
       </c>
       <c r="B182" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C182" t="n">
         <v>1990.0</v>
@@ -18871,7 +19921,7 @@
         <v>380.0</v>
       </c>
       <c r="B183" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C183" t="n">
         <v>1990.0</v>
@@ -18885,7 +19935,7 @@
         <v>392.0</v>
       </c>
       <c r="B184" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C184" t="n">
         <v>1990.0</v>
@@ -18899,7 +19949,7 @@
         <v>404.0</v>
       </c>
       <c r="B185" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C185" t="n">
         <v>1990.0</v>
@@ -18913,7 +19963,7 @@
         <v>484.0</v>
       </c>
       <c r="B186" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C186" t="n">
         <v>1990.0</v>
@@ -18927,7 +19977,7 @@
         <v>528.0</v>
       </c>
       <c r="B187" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C187" t="n">
         <v>1990.0</v>
@@ -18941,7 +19991,7 @@
         <v>616.0</v>
       </c>
       <c r="B188" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C188" t="n">
         <v>1990.0</v>
@@ -18955,7 +20005,7 @@
         <v>643.0</v>
       </c>
       <c r="B189" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="C189" t="n">
         <v>1990.0</v>
@@ -18969,7 +20019,7 @@
         <v>710.0</v>
       </c>
       <c r="B190" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C190" t="n">
         <v>1990.0</v>
@@ -18983,7 +20033,7 @@
         <v>724.0</v>
       </c>
       <c r="B191" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C191" t="n">
         <v>1990.0</v>
@@ -18997,7 +20047,7 @@
         <v>752.0</v>
       </c>
       <c r="B192" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C192" t="n">
         <v>1990.0</v>
@@ -19011,7 +20061,7 @@
         <v>764.0</v>
       </c>
       <c r="B193" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C193" t="n">
         <v>1990.0</v>
@@ -19025,7 +20075,7 @@
         <v>792.0</v>
       </c>
       <c r="B194" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C194" t="n">
         <v>1990.0</v>
@@ -19039,7 +20089,7 @@
         <v>826.0</v>
       </c>
       <c r="B195" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C195" t="n">
         <v>1990.0</v>
@@ -19053,7 +20103,7 @@
         <v>840.0</v>
       </c>
       <c r="B196" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C196" t="n">
         <v>1990.0</v>
@@ -19067,7 +20117,7 @@
         <v>32.0</v>
       </c>
       <c r="B197" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C197" t="n">
         <v>2000.0</v>
@@ -19081,7 +20131,7 @@
         <v>36.0</v>
       </c>
       <c r="B198" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C198" t="n">
         <v>2000.0</v>
@@ -19095,7 +20145,7 @@
         <v>76.0</v>
       </c>
       <c r="B199" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C199" t="n">
         <v>2000.0</v>
@@ -19109,7 +20159,7 @@
         <v>124.0</v>
       </c>
       <c r="B200" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C200" t="n">
         <v>2000.0</v>
@@ -19123,7 +20173,7 @@
         <v>156.0</v>
       </c>
       <c r="B201" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C201" t="n">
         <v>2000.0</v>
@@ -19137,7 +20187,7 @@
         <v>818.0</v>
       </c>
       <c r="B202" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C202" t="n">
         <v>2000.0</v>
@@ -19151,7 +20201,7 @@
         <v>250.0</v>
       </c>
       <c r="B203" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C203" t="n">
         <v>2000.0</v>
@@ -19165,7 +20215,7 @@
         <v>276.0</v>
       </c>
       <c r="B204" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C204" t="n">
         <v>2000.0</v>
@@ -19179,7 +20229,7 @@
         <v>356.0</v>
       </c>
       <c r="B205" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C205" t="n">
         <v>2000.0</v>
@@ -19193,7 +20243,7 @@
         <v>360.0</v>
       </c>
       <c r="B206" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C206" t="n">
         <v>2000.0</v>
@@ -19207,7 +20257,7 @@
         <v>380.0</v>
       </c>
       <c r="B207" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C207" t="n">
         <v>2000.0</v>
@@ -19221,7 +20271,7 @@
         <v>392.0</v>
       </c>
       <c r="B208" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C208" t="n">
         <v>2000.0</v>
@@ -19235,7 +20285,7 @@
         <v>404.0</v>
       </c>
       <c r="B209" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C209" t="n">
         <v>2000.0</v>
@@ -19249,7 +20299,7 @@
         <v>484.0</v>
       </c>
       <c r="B210" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C210" t="n">
         <v>2000.0</v>
@@ -19263,7 +20313,7 @@
         <v>528.0</v>
       </c>
       <c r="B211" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C211" t="n">
         <v>2000.0</v>
@@ -19277,7 +20327,7 @@
         <v>616.0</v>
       </c>
       <c r="B212" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C212" t="n">
         <v>2000.0</v>
@@ -19291,7 +20341,7 @@
         <v>643.0</v>
       </c>
       <c r="B213" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="C213" t="n">
         <v>2000.0</v>
@@ -19305,7 +20355,7 @@
         <v>710.0</v>
       </c>
       <c r="B214" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C214" t="n">
         <v>2000.0</v>
@@ -19319,7 +20369,7 @@
         <v>724.0</v>
       </c>
       <c r="B215" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C215" t="n">
         <v>2000.0</v>
@@ -19333,7 +20383,7 @@
         <v>752.0</v>
       </c>
       <c r="B216" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C216" t="n">
         <v>2000.0</v>
@@ -19347,7 +20397,7 @@
         <v>764.0</v>
       </c>
       <c r="B217" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C217" t="n">
         <v>2000.0</v>
@@ -19361,7 +20411,7 @@
         <v>792.0</v>
       </c>
       <c r="B218" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C218" t="n">
         <v>2000.0</v>
@@ -19375,7 +20425,7 @@
         <v>826.0</v>
       </c>
       <c r="B219" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C219" t="n">
         <v>2000.0</v>
@@ -19389,7 +20439,7 @@
         <v>840.0</v>
       </c>
       <c r="B220" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C220" t="n">
         <v>2000.0</v>
@@ -19413,50 +20463,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
